--- a/training_data/Dataset Creation.xlsx
+++ b/training_data/Dataset Creation.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -3568,18 +3568,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1994"/>
+  <dimension ref="A1:C1994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="114.5703125" customWidth="1"/>
+    <col min="1" max="1" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3587,23 +3587,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>COUNTIF(B2:B1200, "moderate")</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f>COUNTIF(B2:B1200, "hard")</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3611,15 +3619,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f>COUNTIF(B2:B1200, "easy")</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3635,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3675,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3683,7 +3695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3699,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
